--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_13.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_19_13.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-554875.412338699</v>
+        <v>-557387.8207200635</v>
       </c>
     </row>
     <row r="7">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>31.37046952385457</v>
+        <v>128.5906918204595</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,7 +710,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -722,7 +722,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -753,10 +753,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -823,10 +823,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>122.1262562396382</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.0258082590282</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>75.37331814075108</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,25 +865,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>111.625108329318</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>48.85589892223922</v>
       </c>
     </row>
     <row r="5">
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -908,13 +908,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>36.44558365834127</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>50.8439936530629</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,19 +1060,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>193.902604912174</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1117,10 +1117,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>193.7232353437528</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>14.59946548753694</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>43.00338780289219</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1306,10 +1306,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,22 +1339,22 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>12.3892019929409</v>
       </c>
       <c r="T10" t="n">
-        <v>193.2607248976446</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1424,7 +1424,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="12">
@@ -1543,7 +1543,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>28.54004930889258</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>172.0260335000785</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1661,7 +1661,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1777,10 +1777,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>94.30373791808189</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,10 +1816,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>48.15331591778289</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1850,7 +1850,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2002,7 +2002,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2014,7 +2014,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>156.3923706291126</v>
+        <v>115.7063133373723</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>0.4774956074563874</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>30.40549967255555</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,19 +2482,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>42.76123719079575</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2564,7 +2564,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,19 +2719,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>35.66650366117342</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,7 +2953,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,7 +2965,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0.8253826161909164</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>161.355549430153</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3202,7 +3202,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3436,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3670,7 +3670,7 @@
         <v>122.1493151545294</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308927</v>
+        <v>121.1364005308922</v>
       </c>
       <c r="G40" t="n">
         <v>141.2394908002291</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3721,7 +3721,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3907,7 +3907,7 @@
         <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
-        <v>121.1364005308927</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G43" t="n">
         <v>141.2394908002291</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4135,25 +4135,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308916</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652587</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,25 +4180,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808202</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972045</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1295.236214140705</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="C2" t="n">
-        <v>1295.236214140705</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="D2" t="n">
-        <v>936.970515533955</v>
+        <v>921.7704558796256</v>
       </c>
       <c r="E2" t="n">
-        <v>551.1822629357107</v>
+        <v>535.9822032813813</v>
       </c>
       <c r="F2" t="n">
-        <v>140.1963581461031</v>
+        <v>535.9822032813813</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4328,10 +4328,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4370,10 +4370,10 @@
         <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.975386180639</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204827</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811095</v>
+        <v>1702.096133556938</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999825</v>
+        <v>1527.643104275811</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387314</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332758</v>
+        <v>1219.471239609104</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601609</v>
+        <v>1072.936681635989</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927789</v>
+        <v>936.5735814686075</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>846.0716871064751</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>827.064395508013</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>920.7416649986304</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031484</v>
+        <v>1159.005863978977</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158141</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1972.980349513959</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2857.464672486468</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>3167.964263962571</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125858</v>
+        <v>3325.461468201686</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619338</v>
+        <v>3196.023581695166</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>3003.380581373021</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431609</v>
+        <v>2775.312734507437</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>2285.923269547493</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.07176934196</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501178</v>
+        <v>1870.311470577006</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>752.7622949738579</v>
+        <v>2246.382089998688</v>
       </c>
       <c r="C4" t="n">
-        <v>583.826112045951</v>
+        <v>2077.445907070781</v>
       </c>
       <c r="D4" t="n">
-        <v>433.7094726336153</v>
+        <v>1927.329267658446</v>
       </c>
       <c r="E4" t="n">
-        <v>310.3496178461019</v>
+        <v>1779.416174076053</v>
       </c>
       <c r="F4" t="n">
-        <v>310.3496178461019</v>
+        <v>1632.526226578142</v>
       </c>
       <c r="G4" t="n">
-        <v>142.6467812208209</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="H4" t="n">
-        <v>142.6467812208209</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399797</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>2716.058426102583</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456656</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>3133.919937435997</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>3133.919937435997</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>2844.81707056164</v>
       </c>
       <c r="V4" t="n">
-        <v>1672.610059882606</v>
+        <v>2590.132582355754</v>
       </c>
       <c r="W4" t="n">
-        <v>1383.192889845645</v>
+        <v>2590.132582355754</v>
       </c>
       <c r="X4" t="n">
-        <v>1155.203338947628</v>
+        <v>2477.379947679675</v>
       </c>
       <c r="Y4" t="n">
-        <v>934.4107598040977</v>
+        <v>2428.030554828928</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2047.583838282732</v>
+        <v>1638.360256348808</v>
       </c>
       <c r="C5" t="n">
-        <v>1678.62132134232</v>
+        <v>1269.397739408397</v>
       </c>
       <c r="D5" t="n">
-        <v>1320.35562273557</v>
+        <v>911.1320408016461</v>
       </c>
       <c r="E5" t="n">
-        <v>934.5673701373257</v>
+        <v>525.3437882034018</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>114.3578834137942</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>103.3258372991948</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>103.3258372991948</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T5" t="n">
-        <v>3163.957583789738</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U5" t="n">
-        <v>3163.957583789738</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V5" t="n">
-        <v>3163.957583789738</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W5" t="n">
-        <v>2811.188928519624</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="X5" t="n">
-        <v>2437.723170258544</v>
+        <v>2415.099428388742</v>
       </c>
       <c r="Y5" t="n">
-        <v>2047.583838282732</v>
+        <v>2024.96009641293</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>777.6936570343842</v>
+        <v>553.2677753977071</v>
       </c>
       <c r="C7" t="n">
-        <v>608.7574741064773</v>
+        <v>384.3315924698002</v>
       </c>
       <c r="D7" t="n">
-        <v>458.6408346941415</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4750,25 +4750,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1731.433331005489</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="V7" t="n">
-        <v>1476.748842799602</v>
+        <v>1259.157560278958</v>
       </c>
       <c r="W7" t="n">
-        <v>1187.331672762641</v>
+        <v>969.7403902419976</v>
       </c>
       <c r="X7" t="n">
-        <v>959.3421218646239</v>
+        <v>774.0603545412372</v>
       </c>
       <c r="Y7" t="n">
-        <v>959.3421218646239</v>
+        <v>553.2677753977071</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1582.86133602681</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1213.898819086399</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881544</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794325</v>
+        <v>3104.881139157497</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794325</v>
+        <v>2773.818251813927</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.038273524211</v>
+        <v>2421.049596543812</v>
       </c>
       <c r="X8" t="n">
-        <v>2359.600508066744</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="Y8" t="n">
-        <v>1969.461176090932</v>
+        <v>2047.583838282732</v>
       </c>
     </row>
     <row r="9">
@@ -4857,64 +4857,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158135</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4987,25 +4987,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1914.780202641078</v>
       </c>
       <c r="T10" t="n">
-        <v>1540.395810483355</v>
+        <v>1914.780202641078</v>
       </c>
       <c r="U10" t="n">
-        <v>1540.395810483355</v>
+        <v>1625.677335766721</v>
       </c>
       <c r="V10" t="n">
-        <v>1540.395810483355</v>
+        <v>1370.992847560834</v>
       </c>
       <c r="W10" t="n">
-        <v>1540.395810483355</v>
+        <v>1081.575677523874</v>
       </c>
       <c r="X10" t="n">
-        <v>1312.406259585337</v>
+        <v>1081.575677523874</v>
       </c>
       <c r="Y10" t="n">
-        <v>1091.613680441807</v>
+        <v>860.7830983803434</v>
       </c>
     </row>
     <row r="11">
@@ -5036,13 +5036,13 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
@@ -5072,16 +5072,16 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5121,19 +5121,19 @@
         <v>93.81666304797186</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263526</v>
+        <v>985.7836617409695</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356194</v>
+        <v>816.8474788130626</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232836</v>
+        <v>666.7308394007268</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408905</v>
+        <v>518.8177458183337</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>371.9277983204233</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>204.7316990353033</v>
       </c>
       <c r="H13" t="n">
         <v>175.9033664000582</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U13" t="n">
-        <v>2273.199413378161</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1905.631426649717</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1616.214256612757</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>1388.224705714739</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>1167.432126571209</v>
       </c>
     </row>
     <row r="14">
@@ -5267,10 +5267,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
@@ -5282,13 +5282,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5312,13 +5312,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5361,16 +5361,16 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349511</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061503</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2204.627616639638</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.9288273958734</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C16" t="n">
-        <v>633.9926444679666</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D16" t="n">
-        <v>483.8760050556308</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>335.9629114732377</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>189.0729639753273</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5464,22 +5464,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2148.422832439302</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1859.347605783499</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1604.663117577612</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1315.245947540652</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369643</v>
+        <v>1087.256396642634</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261132</v>
+        <v>866.4638174991043</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5513,49 +5513,49 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797189</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>538.7363435406111</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C19" t="n">
-        <v>538.7363435406111</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D19" t="n">
-        <v>388.6197041282754</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E19" t="n">
-        <v>240.7066105458823</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F19" t="n">
-        <v>93.81666304797189</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910811</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580263</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832665</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2221.945288288107</v>
+        <v>2330.088019603117</v>
       </c>
       <c r="T19" t="n">
-        <v>2002.343823311048</v>
+        <v>2110.486554626058</v>
       </c>
       <c r="U19" t="n">
-        <v>1713.268596655246</v>
+        <v>1821.411327970255</v>
       </c>
       <c r="V19" t="n">
-        <v>1458.584108449359</v>
+        <v>1566.726839764368</v>
       </c>
       <c r="W19" t="n">
-        <v>1169.166938412398</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="X19" t="n">
-        <v>941.1773875143809</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y19" t="n">
-        <v>720.3848083708508</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="20">
@@ -5726,40 +5726,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5783,19 +5783,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5829,22 +5829,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>221.3431781811722</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>221.3431781811722</v>
       </c>
       <c r="L21" t="n">
-        <v>119.2902967703784</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="M21" t="n">
-        <v>716.6687843969303</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P21" t="n">
         <v>2319.799627685893</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>847.644273983533</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C22" t="n">
-        <v>847.644273983533</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711973</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888042</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2349.204753900789</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T22" t="n">
-        <v>2129.60328892373</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U22" t="n">
-        <v>1840.528062267928</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V22" t="n">
-        <v>1585.843574062041</v>
+        <v>1616.556199993915</v>
       </c>
       <c r="W22" t="n">
-        <v>1296.426404025081</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X22" t="n">
-        <v>1068.436853127063</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y22" t="n">
-        <v>847.644273983533</v>
+        <v>1099.149479058937</v>
       </c>
     </row>
     <row r="23">
@@ -5978,31 +5978,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192508</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6066,22 +6066,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2403.769914700669</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2184.16844972361</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1895.093223067808</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1640.408734861921</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>1350.99156482496</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6203,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6218,55 +6218,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>948.5505208511906</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1941.434309135586</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1686.749820929699</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1397.332650892738</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>1169.343099994721</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>948.5505208511906</v>
       </c>
     </row>
     <row r="29">
@@ -6437,34 +6437,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075798</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332386</v>
@@ -6476,37 +6476,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1318.793114229131</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1870.702844468418</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2294.325993963486</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2527.587654338369</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="32">
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6716,34 +6716,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,25 +6771,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7014,22 +7014,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,43 +7160,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192602</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
         <v>4606.285157492578</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7236,7 +7236,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7245,28 +7245,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
         <v>2553.061288060775</v>
@@ -7306,16 +7306,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319335</v>
+        <v>926.957531531933</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656828</v>
+        <v>782.5512955656824</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150035</v>
+        <v>656.964603115003</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942666</v>
+        <v>533.5814564942661</v>
       </c>
       <c r="F40" t="n">
         <v>411.2214559580113</v>
@@ -7327,31 +7327,31 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380731</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931274</v>
@@ -7363,19 +7363,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="41">
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,16 +7421,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7485,13 +7485,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7543,52 +7543,52 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319335</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656828</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150035</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942666</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N43" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931274</v>
@@ -7600,19 +7600,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7725,25 +7725,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>119.290296770379</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>716.6687843969308</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1344.266747951538</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7780,55 +7780,55 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319319</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150016</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942648</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580107</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345468</v>
       </c>
       <c r="H46" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384021</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380735</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.265941231133</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717214</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -7843,13 +7843,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X46" t="n">
         <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
   </sheetData>
@@ -22550,19 +22550,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>379.5512561295989</v>
+        <v>282.331033832994</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22711,10 +22711,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>24.30770640693096</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>169.7287544298556</v>
       </c>
     </row>
     <row r="5">
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="12">
@@ -23431,7 +23431,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>111.7546635373313</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016484</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>114.1584408891656</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23665,13 +23665,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>71.22040037418695</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856639</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,10 +23704,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>169.2521344095054</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,7 +23890,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>24.63391537253196</v>
+        <v>65.31997266427226</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>179.3544845744809</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,7 +24175,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>150.620786329089</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24370,19 +24370,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>138.2650488108488</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>250.5179707280707</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25090,10 +25090,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25324,7 +25324,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25558,7 +25558,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>-5.704326028209812e-13</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -26317,7 +26317,7 @@
         <v>266838.5752058921</v>
       </c>
       <c r="D2" t="n">
-        <v>266838.5752058921</v>
+        <v>266838.5752058922</v>
       </c>
       <c r="E2" t="n">
         <v>262322.6448992519</v>
@@ -26326,34 +26326,34 @@
         <v>262322.644899252</v>
       </c>
       <c r="G2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="H2" t="n">
         <v>262322.6448992519</v>
       </c>
       <c r="I2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="J2" t="n">
         <v>262322.6448992519</v>
       </c>
       <c r="K2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="L2" t="n">
-        <v>262322.6448992519</v>
+        <v>262322.644899252</v>
       </c>
       <c r="M2" t="n">
         <v>262322.644899252</v>
       </c>
       <c r="N2" t="n">
+        <v>266838.5752058924</v>
+      </c>
+      <c r="O2" t="n">
         <v>266838.5752058923</v>
       </c>
-      <c r="O2" t="n">
-        <v>266838.5752058924</v>
-      </c>
       <c r="P2" t="n">
-        <v>266838.5752058922</v>
+        <v>266838.5752058923</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26363,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551156</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
-        <v>19427.71799363196</v>
+        <v>19427.71799363178</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25226.35430582078</v>
+        <v>25226.35430582087</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316939</v>
+        <v>91573.95495316944</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316938</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26436,28 +26436,28 @@
         <v>12386.92018181813</v>
       </c>
       <c r="I4" t="n">
+        <v>12386.92018181812</v>
+      </c>
+      <c r="J4" t="n">
         <v>12386.92018181813</v>
       </c>
-      <c r="J4" t="n">
-        <v>12386.92018181811</v>
-      </c>
       <c r="K4" t="n">
-        <v>12386.9201818181</v>
+        <v>12386.92018181819</v>
       </c>
       <c r="L4" t="n">
-        <v>12386.92018181813</v>
+        <v>12386.92018181818</v>
       </c>
       <c r="M4" t="n">
         <v>12386.92018181813</v>
       </c>
       <c r="N4" t="n">
-        <v>20377.77944491157</v>
+        <v>20377.7794449116</v>
       </c>
       <c r="O4" t="n">
-        <v>20377.77944491161</v>
+        <v>20377.7794449116</v>
       </c>
       <c r="P4" t="n">
-        <v>20377.77944491161</v>
+        <v>20377.77944491158</v>
       </c>
     </row>
     <row r="5">
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1232845.396818908</v>
+        <v>-1233136.003983754</v>
       </c>
       <c r="C6" t="n">
-        <v>67330.67969132945</v>
+        <v>67330.67969132913</v>
       </c>
       <c r="D6" t="n">
-        <v>67330.67969132939</v>
+        <v>67330.67969132948</v>
       </c>
       <c r="E6" t="n">
-        <v>-176599.2669138284</v>
+        <v>-176634.0048392641</v>
       </c>
       <c r="F6" t="n">
-        <v>148813.1948935268</v>
+        <v>148778.456968091</v>
       </c>
       <c r="G6" t="n">
-        <v>148813.1948935265</v>
+        <v>148778.456968091</v>
       </c>
       <c r="H6" t="n">
-        <v>148813.1948935266</v>
+        <v>148778.456968091</v>
       </c>
       <c r="I6" t="n">
-        <v>148813.1948935267</v>
+        <v>148778.456968091</v>
       </c>
       <c r="J6" t="n">
-        <v>-68718.00750375082</v>
+        <v>-68752.74542918653</v>
       </c>
       <c r="K6" t="n">
-        <v>148813.1948935267</v>
+        <v>148778.456968091</v>
       </c>
       <c r="L6" t="n">
-        <v>148813.1948935266</v>
+        <v>148778.456968091</v>
       </c>
       <c r="M6" t="n">
-        <v>63758.16695801519</v>
+        <v>63723.4290325793</v>
       </c>
       <c r="N6" t="n">
-        <v>123868.9619134334</v>
+        <v>123868.9619134337</v>
       </c>
       <c r="O6" t="n">
-        <v>143296.6799070654</v>
+        <v>143296.6799070653</v>
       </c>
       <c r="P6" t="n">
         <v>143296.6799070654</v>
@@ -26719,13 +26719,13 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
     <row r="3">
@@ -26790,10 +26790,10 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26802,7 +26802,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
@@ -26811,10 +26811,10 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
@@ -26823,7 +26823,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
         <v>1172.708288099648</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26960,7 +26960,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26972,7 +26972,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26993,7 +26993,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973553</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27555,7 +27555,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>20.97910226908701</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>114.0845470597192</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27628,13 +27628,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>5.13134611458468</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,19 +27664,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>153.0739764865572</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,19 +27780,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,13 +27822,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>92.30923329343892</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,10 +27837,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>31.98642004528435</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>236.395706471365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>326.7277128755769</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28026,10 +28026,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,22 +28059,22 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>177.379823338501</v>
       </c>
       <c r="T10" t="n">
-        <v>26.28822437852457</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28296,7 +28296,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>-3.770613451100265e-12</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28503,7 +28503,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-8.483880264975597e-13</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -28570,7 +28570,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>-5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.696776052995119e-12</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -29050,7 +29050,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-1.70530256582424e-13</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29284,7 +29284,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -29509,7 +29509,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203967</v>
       </c>
     </row>
   </sheetData>
@@ -31039,43 +31039,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31124,40 +31124,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31197,13 +31197,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31212,16 +31212,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31230,16 +31230,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31841,13 +31841,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>669.5976799347666</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31856,7 +31856,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32081,19 +32081,19 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>485.927610870024</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>255.6522884173741</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>164.2853229338202</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622658</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>171.4104471179097</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,31 +33488,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33524,13 +33524,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33734,10 +33734,10 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,10 +33749,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -33998,13 +33998,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,10 +34199,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34211,16 +34211,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34235,13 +34235,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34445,13 +34445,13 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34460,13 +34460,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,10 +34854,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
         <v>319.7573721701981</v>
@@ -34869,13 +34869,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35489,13 +35489,13 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>527.4636460127483</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35504,7 +35504,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35729,19 +35729,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>351.9532034556937</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010469</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36197,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>25.73094315394599</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,25 +36434,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402476</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,31 +36908,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>25.73094315394571</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,16 +37151,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,10 +37397,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,28 +37616,28 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016747</v>
@@ -37707,16 +37707,16 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986648</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
         <v>144.6869047919381</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,13 +37862,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>105.3311307549932</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
         <v>288.6172359016747</v>
@@ -37944,16 +37944,16 @@
         <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
-        <v>319.9164207986648</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
         <v>144.6869047919381</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38108,13 +38108,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>105.3311307549931</v>
+        <v>105.331130754993</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N46" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P46" t="n">
-        <v>319.9164207986647</v>
+        <v>319.9164207986646</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
